--- a/datathon/Datathon_BioSample_Template.xlsx
+++ b/datathon/Datathon_BioSample_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdeck/IdeaProjects/geome-configurations/datathon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18614C7-56A0-ED43-8BE3-A3872C18121B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BA7978-4E27-D541-BC34-5A9F476D23DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1880" yWindow="25140" windowWidth="38400" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
     <author>tc={31B573AD-065D-3D40-8147-D1F38DF6792A}</author>
   </authors>
   <commentList>
-    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{31B573AD-065D-3D40-8147-D1F38DF6792A}">
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{31B573AD-065D-3D40-8147-D1F38DF6792A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="1054">
   <si>
     <t>~naan=21547~</t>
   </si>
@@ -3500,9 +3500,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>infraSpecificEpithet</t>
-  </si>
-  <si>
     <t>collectorList</t>
   </si>
   <si>
@@ -3546,13 +3543,25 @@
   </si>
   <si>
     <t>derivedGeneticDataURI</t>
+  </si>
+  <si>
+    <t>infraspecificEpithet</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Have not build Derived Data Extension Yet.</t>
+  </si>
+  <si>
+    <t>In GEOME project currently?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3807,8 +3816,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3819,12 +3835,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3840,7 +3850,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3909,17 +3919,7 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3928,12 +3928,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4155,7 +4164,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C9" dT="2020-07-08T15:31:55.96" personId="{CE62BB34-AF1F-484C-B506-95D2EBC2618B}" id="{31B573AD-065D-3D40-8147-D1F38DF6792A}">
+  <threadedComment ref="D9" dT="2020-07-08T15:31:55.96" personId="{CE62BB34-AF1F-484C-B506-95D2EBC2618B}" id="{31B573AD-065D-3D40-8147-D1F38DF6792A}">
     <text>country name is required by geome.  can be an ocean name (oceans are in list)</text>
   </threadedComment>
 </ThreadedComments>
@@ -24913,1145 +24922,1284 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M997"/>
+  <dimension ref="A1:N997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.1640625" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.33203125" customWidth="1"/>
-    <col min="5" max="5" width="80.5" customWidth="1"/>
-    <col min="6" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="81.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="29" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.33203125" customWidth="1"/>
+    <col min="6" max="6" width="80.5" customWidth="1"/>
+    <col min="7" max="7" width="35" customWidth="1"/>
+    <col min="8" max="8" width="81.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="30" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:14" ht="19">
+      <c r="A1" s="44" t="s">
         <v>1034</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="44" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="D1" s="59" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E1" s="44" t="s">
         <v>1041</v>
       </c>
-      <c r="D1" s="49" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E1" s="34" t="s">
+      <c r="F1" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="G1" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="H1" s="39" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="65">
+    <row r="2" spans="1:14" ht="65">
       <c r="A2" s="42" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B2" s="39" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="D2" s="23" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:14" ht="33">
+      <c r="A3" s="42" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>1046</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="1:13" ht="33">
-      <c r="A3" s="42" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="56" t="s">
+      <c r="E3" s="23" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="33">
+      <c r="A4" s="42" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>1047</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="33">
-      <c r="A4" s="42" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="56" t="s">
+      <c r="E4" s="23" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="33">
+      <c r="A5" s="42" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="23" t="s">
         <v>1048</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="33">
-      <c r="A5" s="42" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="56" t="s">
+      <c r="E5" s="23" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="33">
+      <c r="A6" s="42" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>1049</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="33">
-      <c r="A6" s="42" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="23" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="H6" s="21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="49">
+    <row r="7" spans="1:14" ht="49">
       <c r="A7" s="42" t="s">
         <v>1033</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C7" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="42"/>
+      <c r="F7" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="H7" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="M7" s="34"/>
-    </row>
-    <row r="8" spans="1:13" ht="65">
+      <c r="I7" s="34"/>
+      <c r="N7" s="34"/>
+    </row>
+    <row r="8" spans="1:14" ht="65">
       <c r="A8" s="42" t="s">
         <v>1033</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="42"/>
+      <c r="F8" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="H8" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="M8" s="14"/>
-    </row>
-    <row r="9" spans="1:13" ht="33">
+      <c r="I8" s="14"/>
+      <c r="N8" s="14"/>
+    </row>
+    <row r="9" spans="1:14" ht="33">
       <c r="A9" s="42" t="s">
         <v>1033</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="26" t="s">
+      <c r="D9" s="59"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="H9" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="M9" s="14"/>
-    </row>
-    <row r="10" spans="1:13" ht="19">
+      <c r="I9" s="14"/>
+      <c r="N9" s="14"/>
+    </row>
+    <row r="10" spans="1:14" ht="19">
       <c r="A10" s="42" t="s">
         <v>1033</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="42"/>
+      <c r="F10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="H10" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="34"/>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" ht="49">
+      <c r="I10" s="34"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" ht="49">
       <c r="A11" s="42" t="s">
         <v>1033</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="42"/>
+      <c r="F11" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="H11" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="M11" s="28"/>
-    </row>
-    <row r="12" spans="1:13" ht="49">
+      <c r="I11" s="28"/>
+      <c r="N11" s="28"/>
+    </row>
+    <row r="12" spans="1:14" ht="49">
       <c r="A12" s="42" t="s">
         <v>1033</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="42"/>
+      <c r="F12" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="H12" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="M12" s="12"/>
-    </row>
-    <row r="13" spans="1:13" ht="49">
-      <c r="A13" s="55" t="s">
+      <c r="I12" s="28"/>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" ht="49">
+      <c r="A13" s="49" t="s">
         <v>1033</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C13" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="60" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="59" t="s">
+      <c r="D13" s="57" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="G13" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="H13" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="H13" s="29"/>
-      <c r="M13" s="29"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1">
+      <c r="I13" s="29"/>
+      <c r="N13" s="29"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1">
       <c r="A14" s="42" t="s">
         <v>1033</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="42"/>
+      <c r="F14" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="H14" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="M14" s="14"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1">
+      <c r="I14" s="24"/>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1">
       <c r="A15" s="42" t="s">
         <v>1033</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C15" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="42"/>
+      <c r="F15" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="G15" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="H15" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="M15" s="15"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1">
+      <c r="I15" s="14"/>
+      <c r="N15" s="15"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1">
       <c r="A16" s="42" t="s">
         <v>1033</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C16" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="42"/>
+      <c r="F16" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="H16" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="M16" s="34"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1">
+      <c r="I16" s="15"/>
+      <c r="N16" s="34"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1">
       <c r="A17" s="42" t="s">
         <v>1033</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C17" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="42"/>
+      <c r="F17" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="26"/>
+      <c r="H17" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="H17" s="33"/>
-      <c r="M17" s="34"/>
-    </row>
-    <row r="18" spans="1:13" ht="81">
+      <c r="I17" s="33"/>
+      <c r="N17" s="34"/>
+    </row>
+    <row r="18" spans="1:14" ht="81">
       <c r="A18" s="42" t="s">
         <v>1033</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C18" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="42"/>
+      <c r="F18" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="H18" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="H18" s="34"/>
-      <c r="M18" s="28"/>
-    </row>
-    <row r="19" spans="1:13" ht="19">
+      <c r="I18" s="34"/>
+      <c r="N18" s="28"/>
+    </row>
+    <row r="19" spans="1:14" ht="19">
       <c r="A19" s="42" t="s">
         <v>1033</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C19" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="42"/>
+      <c r="F19" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="H19" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="H19" s="31"/>
-      <c r="M19" s="34"/>
-    </row>
-    <row r="20" spans="1:13" ht="65">
+      <c r="I19" s="31"/>
+      <c r="N19" s="34"/>
+    </row>
+    <row r="20" spans="1:14" ht="65">
       <c r="A20" s="42" t="s">
         <v>1033</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C20" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="42"/>
+      <c r="F20" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="H20" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="H20" s="31"/>
-      <c r="M20" s="34"/>
-    </row>
-    <row r="21" spans="1:13" ht="58">
+      <c r="I20" s="31"/>
+      <c r="N20" s="34"/>
+    </row>
+    <row r="21" spans="1:14" ht="58">
       <c r="A21" s="42" t="s">
         <v>1033</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C21" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="42"/>
+      <c r="F21" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="G21" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="H21" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="H21" s="34"/>
-      <c r="M21" s="34"/>
-    </row>
-    <row r="22" spans="1:13" ht="19">
+      <c r="I21" s="34"/>
+      <c r="N21" s="34"/>
+    </row>
+    <row r="22" spans="1:14" ht="19">
       <c r="A22" s="42" t="s">
         <v>1033</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C22" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="42"/>
+      <c r="F22" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="H22" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="M22" s="34"/>
-    </row>
-    <row r="23" spans="1:13" ht="65">
+      <c r="I22" s="28"/>
+      <c r="N22" s="34"/>
+    </row>
+    <row r="23" spans="1:14" ht="65">
       <c r="A23" s="42" t="s">
         <v>1033</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C23" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="42"/>
+      <c r="F23" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="H23" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="H23" s="28"/>
-      <c r="M23" s="34"/>
-    </row>
-    <row r="24" spans="1:13" ht="19">
+      <c r="I23" s="28"/>
+      <c r="N23" s="34"/>
+    </row>
+    <row r="24" spans="1:14" ht="19">
       <c r="A24" s="42" t="s">
         <v>1033</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C24" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="42"/>
+      <c r="F24" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="H24" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="H24" s="34"/>
-      <c r="M24" s="34"/>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1">
+      <c r="I24" s="34"/>
+      <c r="N24" s="34"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1">
       <c r="A25" s="42" t="s">
         <v>1033</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="42"/>
+      <c r="F25" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="26"/>
+      <c r="H25" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="H25" s="34"/>
-      <c r="M25" s="14"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1">
+      <c r="I25" s="34"/>
+      <c r="N25" s="14"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" customHeight="1">
       <c r="A26" s="42" t="s">
         <v>1033</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C26" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="42"/>
+      <c r="F26" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="G26" s="30" t="s">
+      <c r="H26" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="H26" s="24"/>
-      <c r="M26" s="24"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1">
+      <c r="I26" s="24"/>
+      <c r="N26" s="24"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1">
       <c r="A27" s="42" t="s">
         <v>1033</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C27" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="56" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="5" t="s">
+      <c r="D27" s="23" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E27" s="50"/>
+      <c r="F27" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="H27" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="H27" s="31"/>
-      <c r="M27" s="24"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1">
+      <c r="I27" s="31"/>
+      <c r="N27" s="24"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" customHeight="1">
       <c r="A28" s="42" t="s">
         <v>1033</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C28" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="42"/>
+      <c r="F28" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="H28" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="M28" s="24"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1">
+      <c r="I28" s="14"/>
+      <c r="N28" s="24"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" customHeight="1">
       <c r="A29" s="42" t="s">
         <v>1033</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C29" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="42"/>
+      <c r="F29" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="H29" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="H29" s="36"/>
-      <c r="M29" s="34"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1">
+      <c r="I29" s="36"/>
+      <c r="N29" s="34"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" customHeight="1">
       <c r="A30" s="42" t="s">
         <v>1033</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C30" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="42"/>
+      <c r="F30" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="H30" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="M30" s="28"/>
-    </row>
-    <row r="31" spans="1:13" ht="52" customHeight="1">
-      <c r="A31" s="44" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B31" s="46" t="s">
+      <c r="I30" s="15"/>
+      <c r="N30" s="28"/>
+    </row>
+    <row r="31" spans="1:14" s="48" customFormat="1" ht="52" customHeight="1">
+      <c r="A31" s="45" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B31" s="45"/>
+      <c r="C31" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="D31" s="57" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F31" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" s="58"/>
+      <c r="N31" s="58"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A32" s="42" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B32" s="42"/>
+      <c r="C32" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="42" t="s">
         <v>1043</v>
       </c>
-      <c r="D31" s="50" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E31" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" s="45"/>
-      <c r="G31" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="H31" s="24"/>
-      <c r="M31" s="24"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A32" s="42" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="42" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E32" s="23" t="s">
+      <c r="F32" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="G32" s="23"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1">
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" customHeight="1">
       <c r="A33" s="42" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B33" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B33" s="42"/>
+      <c r="C33" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="42" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="42" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F33" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="G33" s="23"/>
-      <c r="H33" s="34"/>
-      <c r="M33" s="31"/>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" customHeight="1">
+      <c r="H33" s="23"/>
+      <c r="I33" s="34"/>
+      <c r="N33" s="31"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" customHeight="1">
       <c r="A34" s="42" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B34" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B34" s="42"/>
+      <c r="C34" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="42" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="42" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F34" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="G34" s="23"/>
-      <c r="H34" s="34"/>
-      <c r="M34" s="33"/>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" customHeight="1">
+      <c r="H34" s="23"/>
+      <c r="I34" s="34"/>
+      <c r="N34" s="33"/>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" customHeight="1">
       <c r="A35" s="42" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B35" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B35" s="42"/>
+      <c r="C35" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="42" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="42" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F35" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="G35" s="23"/>
-      <c r="H35" s="4"/>
-      <c r="M35" s="31"/>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" customHeight="1">
+      <c r="H35" s="23"/>
+      <c r="I35" s="4"/>
+      <c r="N35" s="31"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" customHeight="1">
       <c r="A36" s="42" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B36" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B36" s="42"/>
+      <c r="C36" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="42" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="42" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F36" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="G36" s="23"/>
-      <c r="H36" s="24"/>
-      <c r="M36" s="31"/>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" customHeight="1">
+      <c r="H36" s="23"/>
+      <c r="I36" s="24"/>
+      <c r="N36" s="31"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" customHeight="1">
       <c r="A37" s="42" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B37" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B37" s="42"/>
+      <c r="C37" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="42" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="42" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F37" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="G37" s="23"/>
-      <c r="H37" s="28"/>
-      <c r="M37" s="31"/>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" customHeight="1">
+      <c r="H37" s="23"/>
+      <c r="I37" s="28"/>
+      <c r="N37" s="31"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" customHeight="1">
       <c r="A38" s="42" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B38" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B38" s="42"/>
+      <c r="C38" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="42" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="42" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G38" s="23" t="s">
+      <c r="H38" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="H38" s="34"/>
-      <c r="M38" s="36"/>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" customHeight="1">
+      <c r="I38" s="34"/>
+      <c r="N38" s="36"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" customHeight="1">
       <c r="A39" s="42" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B39" s="37" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B39" s="42"/>
+      <c r="C39" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="42" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="42" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F39" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="G39" s="23"/>
-      <c r="H39" s="31"/>
-      <c r="M39" s="24"/>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" customHeight="1">
+      <c r="H39" s="23"/>
+      <c r="I39" s="31"/>
+      <c r="N39" s="24"/>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" customHeight="1">
       <c r="A40" s="42" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B40" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B40" s="42"/>
+      <c r="C40" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="42" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="42" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F40" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="G40" s="23"/>
-      <c r="H40" s="33"/>
-      <c r="M40" s="31"/>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" customHeight="1">
+      <c r="H40" s="23"/>
+      <c r="I40" s="33"/>
+      <c r="N40" s="31"/>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" customHeight="1">
       <c r="A41" s="42" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B41" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B41" s="42"/>
+      <c r="C41" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="42" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="42" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F41" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="G41" s="23" t="s">
+      <c r="H41" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="H41" s="14"/>
-      <c r="M41" s="15"/>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" customHeight="1">
+      <c r="I41" s="14"/>
+      <c r="N41" s="15"/>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" customHeight="1">
       <c r="A42" s="42" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B42" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B42" s="42"/>
+      <c r="C42" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="42" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="42" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F42" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="G42" s="23"/>
-      <c r="H42" s="34"/>
-      <c r="M42" s="33"/>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" customHeight="1">
+      <c r="H42" s="23"/>
+      <c r="I42" s="34"/>
+      <c r="N42" s="33"/>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" customHeight="1">
       <c r="A43" s="42" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B43" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B43" s="42"/>
+      <c r="C43" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="42" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="42" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F43" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="G43" s="23"/>
-      <c r="H43" s="31"/>
-      <c r="M43" s="31"/>
-    </row>
-    <row r="44" spans="1:13" ht="15.75" customHeight="1">
+      <c r="H43" s="23"/>
+      <c r="I43" s="31"/>
+      <c r="N43" s="31"/>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" customHeight="1">
       <c r="A44" s="42" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B44" s="34" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C44" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="F44" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="G44" s="21" t="s">
+      <c r="H44" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="H44" s="34"/>
-      <c r="M44" s="34"/>
-    </row>
-    <row r="45" spans="1:13" ht="15.75" customHeight="1">
+      <c r="I44" s="34"/>
+      <c r="N44" s="34"/>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" customHeight="1">
       <c r="A45" s="42" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B45" s="14" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C45" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="F45" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="G45" s="21" t="s">
+      <c r="H45" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="H45" s="14"/>
-      <c r="M45" s="14"/>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" customHeight="1">
+      <c r="I45" s="14"/>
+      <c r="N45" s="14"/>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" customHeight="1">
       <c r="A46" s="42" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B46" s="8" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="F46" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G46" s="23" t="s">
+      <c r="H46" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="H46" s="24"/>
-      <c r="M46" s="24"/>
-    </row>
-    <row r="47" spans="1:13" ht="15.75" customHeight="1">
+      <c r="I46" s="24"/>
+      <c r="N46" s="24"/>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" customHeight="1">
       <c r="A47" s="42" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B47" s="11" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E47" s="26" t="s">
+      <c r="F47" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="G47" s="23" t="s">
+      <c r="H47" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="H47" s="24"/>
-      <c r="M47" s="24"/>
-    </row>
-    <row r="48" spans="1:13" ht="15.75" customHeight="1">
+      <c r="I47" s="24"/>
+      <c r="N47" s="24"/>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" customHeight="1">
       <c r="A48" s="42" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B48" s="8" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="F48" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G48" s="30" t="s">
+      <c r="H48" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="H48" s="31"/>
-      <c r="M48" s="24"/>
-    </row>
-    <row r="49" spans="1:13" ht="15.75" customHeight="1">
+      <c r="I48" s="31"/>
+      <c r="N48" s="24"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" customHeight="1">
       <c r="A49" s="42" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B49" s="11" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="F49" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G49" s="30" t="s">
+      <c r="H49" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="H49" s="24"/>
-      <c r="M49" s="24"/>
-    </row>
-    <row r="50" spans="1:13" ht="15.75" customHeight="1">
+      <c r="I49" s="24"/>
+      <c r="N49" s="24"/>
+    </row>
+    <row r="50" spans="1:14" ht="15.75" customHeight="1">
       <c r="A50" s="42" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B50" s="37" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B50" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C50" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="56" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D50" s="56"/>
-      <c r="E50" s="6" t="s">
+      <c r="D50" s="23" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E50" s="50"/>
+      <c r="F50" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G50" s="23" t="s">
+      <c r="H50" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="H50" s="29"/>
-      <c r="M50" s="29"/>
-    </row>
-    <row r="51" spans="1:13" ht="15.75" customHeight="1">
+      <c r="I50" s="29"/>
+      <c r="N50" s="29"/>
+    </row>
+    <row r="51" spans="1:14" ht="15.75" customHeight="1">
       <c r="A51" s="42" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B51" s="34" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B51" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C51" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="F51" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F51" s="26" t="s">
+      <c r="G51" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="G51" s="23" t="s">
+      <c r="H51" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="H51" s="33"/>
-      <c r="M51" s="34"/>
-    </row>
-    <row r="52" spans="1:13" ht="15.75" customHeight="1">
+      <c r="I51" s="33"/>
+      <c r="N51" s="34"/>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" customHeight="1">
       <c r="A52" s="42" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B52" s="11" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B52" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="F52" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G52" s="23" t="s">
+      <c r="H52" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="H52" s="33"/>
-      <c r="M52" s="28"/>
-    </row>
-    <row r="53" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A53" s="51" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B53" s="52" t="s">
+      <c r="I52" s="33"/>
+      <c r="N52" s="28"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A53" s="45" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B53" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C53" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="53" t="s">
+      <c r="D53" s="57"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="F53" s="54"/>
-      <c r="G53" s="55" t="s">
+      <c r="G53" s="48"/>
+      <c r="H53" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="H53" s="34"/>
-      <c r="M53" s="24"/>
-    </row>
-    <row r="54" spans="1:13" ht="15.75" customHeight="1">
+      <c r="I53" s="34"/>
+      <c r="N53" s="24"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1">
       <c r="A54" s="42" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B54" s="8" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B54" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E54" s="26" t="s">
+      <c r="F54" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="G54" s="23" t="s">
+      <c r="H54" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="H54" s="34"/>
-      <c r="M54" s="24"/>
-    </row>
-    <row r="55" spans="1:13" ht="15.75" customHeight="1">
+      <c r="I54" s="34"/>
+      <c r="N54" s="24"/>
+    </row>
+    <row r="55" spans="1:14" ht="15.75" customHeight="1">
       <c r="A55" s="42" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B55" s="34" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B55" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C55" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E55" s="26" t="s">
+      <c r="F55" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="G55" s="23" t="s">
+      <c r="H55" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="H55" s="34"/>
-      <c r="M55" s="34"/>
-    </row>
-    <row r="56" spans="1:13" ht="15.75" customHeight="1">
+      <c r="I55" s="34"/>
+      <c r="N55" s="34"/>
+    </row>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1">
       <c r="A56" s="42" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B56" s="8" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B56" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E56" s="26" t="s">
+      <c r="F56" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="F56" s="23" t="s">
+      <c r="G56" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G56" s="23" t="s">
+      <c r="H56" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="H56" s="34"/>
-      <c r="M56" s="24"/>
-    </row>
-    <row r="57" spans="1:13" ht="15.75" customHeight="1">
+      <c r="I56" s="34"/>
+      <c r="N56" s="24"/>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1">
       <c r="A57" s="42" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B57" s="14" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B57" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C57" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E57" s="26" t="s">
+      <c r="F57" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="F57" s="23" t="s">
+      <c r="G57" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G57" s="23" t="s">
+      <c r="H57" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="H57" s="24"/>
-      <c r="M57" s="14"/>
-    </row>
-    <row r="58" spans="1:13" ht="15.75" customHeight="1">
+      <c r="I57" s="24"/>
+      <c r="N57" s="14"/>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1">
       <c r="A58" s="42" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B58" s="15" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B58" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C58" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E58" s="26" t="s">
+      <c r="F58" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="G58" s="23" t="s">
+      <c r="H58" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="H58" s="24"/>
-      <c r="M58" s="34"/>
-    </row>
-    <row r="59" spans="1:13" ht="15.75" customHeight="1">
+      <c r="I58" s="24"/>
+      <c r="N58" s="34"/>
+    </row>
+    <row r="59" spans="1:14" ht="15.75" customHeight="1">
       <c r="A59" s="42" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B59" s="34" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B59" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C59" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="E59" s="26" t="s">
+      <c r="F59" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="F59" s="26" t="s">
+      <c r="G59" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="G59" s="23" t="s">
+      <c r="H59" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="H59" s="24"/>
-      <c r="M59" s="34"/>
-    </row>
-    <row r="60" spans="1:13" ht="15.75" customHeight="1">
+      <c r="I59" s="24"/>
+      <c r="N59" s="34"/>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" customHeight="1">
       <c r="A60" s="42" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B60" s="11" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B60" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="26" t="s">
+      <c r="F60" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="G60" s="23" t="s">
+      <c r="H60" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="H60" s="31"/>
-      <c r="M60" s="24"/>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" customHeight="1">
+      <c r="I60" s="31"/>
+      <c r="N60" s="24"/>
+    </row>
+    <row r="61" spans="1:14" ht="15.75" customHeight="1">
       <c r="A61" s="42" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B61" s="34" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B61" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C61" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="E61" s="26" t="s">
+      <c r="F61" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="G61" s="23" t="s">
+      <c r="H61" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="H61" s="24"/>
-      <c r="M61" s="34"/>
-    </row>
-    <row r="62" spans="1:13" ht="15.75" customHeight="1">
+      <c r="I61" s="24"/>
+      <c r="N61" s="34"/>
+    </row>
+    <row r="62" spans="1:14" ht="15.75" customHeight="1">
       <c r="A62" s="42" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B62" s="34" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B62" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C62" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E62" s="26" t="s">
+      <c r="F62" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="G62" s="21" t="s">
+      <c r="H62" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="H62" s="31"/>
-      <c r="M62" s="34"/>
-    </row>
-    <row r="63" spans="1:13" ht="15.75" customHeight="1"/>
-    <row r="64" spans="1:13" ht="15.75" customHeight="1"/>
+      <c r="I62" s="31"/>
+      <c r="N62" s="34"/>
+    </row>
+    <row r="63" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:14" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -26986,20 +27134,20 @@
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M997">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N997">
     <sortCondition ref="A2:A997"/>
-    <sortCondition ref="B2:B997"/>
+    <sortCondition ref="C2:C997"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G44" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E45" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="G45" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="G6" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="E14" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="E15" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="E53" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="G28" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="G62" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="H44" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="F45" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="H45" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="H6" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="F14" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="F15" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="F53" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="H28" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="H62" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
